--- a/Journal Policy Data Summaries/Data/Dataset S3 Elsevier editor data.xlsx
+++ b/Journal Policy Data Summaries/Data/Dataset S3 Elsevier editor data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25616"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cld74/Dropbox/Academic/Professional Institutions/Previous Institutions/Michigan State University/Collaborative Research Group/Final Project Code/Peer Review Bias/Journal Policy Summaries/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate.sharepoint.com/sites/EEBCRG/Shared Documents/General/Manuscript files!/SI Data and code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E851B2F7-9DAA-6045-A031-2FB19FF238A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{689FB28F-671A-E340-88CC-6AF256B0A2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6087B70C-E526-40EA-869D-55FDF915EF49}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elsevier_editor_data" sheetId="1" r:id="rId1"/>
@@ -281,20 +281,40 @@
     <t>Percent of editorial board self-reporting gender as 'nonbinary or gender diverse'</t>
   </si>
   <si>
+    <r>
+      <t>Percent of editorial board that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> preferred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> not to disclosed gender</t>
+    </r>
+  </si>
+  <si>
     <t>Percent of total editorial board that self-reported gender</t>
   </si>
   <si>
     <t>Other notes made when collecting data</t>
-  </si>
-  <si>
-    <t>Percent of editorial board that preferred not to disclosed gender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -415,6 +435,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1120,14 +1146,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5" style="1"/>
+    <col min="2" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2815,15 +2841,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A845EBE3-D9EC-4E03-ADF3-B8F7CC4C8905}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="37.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2887,7 +2913,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2895,7 +2921,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2903,7 +2929,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2912,9 +2938,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3129,46 +3158,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBA7957-3268-4070-AA9B-6BE203B7FCA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835CA598-76A5-4F2B-8253-5AD3645BCA71}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F69DD2-9BD8-4583-B0CC-73934D40A6FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aabf8062-b398-4e6b-9e63-bdc5fbcabccf"/>
-    <ds:schemaRef ds:uri="9f2a4b4d-4143-435b-af8b-2c0dc50657c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F69DD2-9BD8-4583-B0CC-73934D40A6FB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835CA598-76A5-4F2B-8253-5AD3645BCA71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBA7957-3268-4070-AA9B-6BE203B7FCA0}"/>
 </file>
--- a/Journal Policy Data Summaries/Data/Dataset S3 Elsevier editor data.xlsx
+++ b/Journal Policy Data Summaries/Data/Dataset S3 Elsevier editor data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate.sharepoint.com/sites/EEBCRG/Shared Documents/General/Manuscript files!/SI Data and code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Olivia\Desktop\olivia.m.smith\Desktop\EEB CRG\Manuscript\Nat EcoEvo\Revision 1\SI Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{689FB28F-671A-E340-88CC-6AF256B0A2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6087B70C-E526-40EA-869D-55FDF915EF49}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908BCCCC-62BF-406A-9CC3-2F2916AF9281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,9 +125,6 @@
     <t>Trends in Ecology and Evolution</t>
   </si>
   <si>
-    <t xml:space="preserve">This journal only has one Editor (webpage uses "she/her" pronouns). It is Cell Press, owned by Elsevier, but doesn't have the same editor data </t>
-  </si>
-  <si>
     <t>TRENDS IN GENETICS</t>
   </si>
   <si>
@@ -281,33 +278,16 @@
     <t>Percent of editorial board self-reporting gender as 'nonbinary or gender diverse'</t>
   </si>
   <si>
-    <r>
-      <t>Percent of editorial board that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> preferred</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> not to disclosed gender</t>
-    </r>
+    <t>Percent of editorial board that preferred not to disclosed gender</t>
   </si>
   <si>
     <t>Percent of total editorial board that self-reported gender</t>
   </si>
   <si>
     <t>Other notes made when collecting data</t>
+  </si>
+  <si>
+    <t>This journal only has one Editor (webpage uses "she/her" pronouns). It is Cell Press, owned by Elsevier, but doesn't have the same editor data. It was not included in main text summaries.</t>
   </si>
 </sst>
 </file>
@@ -440,7 +420,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -786,9 +766,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1147,7 +1128,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
@@ -1213,97 +1194,97 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>93</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1">
-        <v>81</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>70</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1312,76 +1293,76 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1">
-        <v>75</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1">
-        <v>75</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>97</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1390,24 +1371,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1421,1419 +1402,1423 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1">
         <v>18</v>
       </c>
-      <c r="B11" s="1">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1">
-        <v>73</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>100</v>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1">
-        <v>71</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>98</v>
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1">
-        <v>69</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>93</v>
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1">
-        <v>67</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>55</v>
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1">
-        <v>60</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>83</v>
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1">
         <v>22</v>
       </c>
-      <c r="D16" s="1">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1">
+        <v>89</v>
+      </c>
+      <c r="C19" s="1">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="B25" s="1">
+        <v>59</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1">
+        <v>112</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1">
-        <v>43</v>
-      </c>
-      <c r="E17" s="1">
-        <v>57</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
+      <c r="B32" s="1">
         <v>25</v>
       </c>
-      <c r="B18" s="1">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1">
-        <v>53</v>
-      </c>
-      <c r="E18" s="1">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45</v>
-      </c>
-      <c r="C19" s="1">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1">
-        <v>54</v>
-      </c>
-      <c r="E19" s="1">
-        <v>46</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1">
-        <v>63</v>
-      </c>
-      <c r="E20" s="1">
-        <v>38</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1">
-        <v>100</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>100</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>100</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>100</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>100</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>100</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>100</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="1">
-        <v>31</v>
-      </c>
-      <c r="C25" s="1">
-        <v>18</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1">
-        <v>41</v>
-      </c>
-      <c r="C26" s="1">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1">
-        <v>45</v>
-      </c>
-      <c r="C27" s="1">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="1">
-        <v>61</v>
-      </c>
-      <c r="C28" s="1">
-        <v>19</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1">
-        <v>19</v>
-      </c>
-      <c r="C29" s="1">
-        <v>14</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1">
-        <v>63</v>
-      </c>
-      <c r="C30" s="1">
-        <v>19</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="1">
-        <v>37</v>
-      </c>
-      <c r="C31" s="1">
-        <v>22</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="1">
-        <v>28</v>
-      </c>
       <c r="C32" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1">
         <v>19</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>34</v>
+      <c r="E33" s="1">
+        <v>72</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
-        <v>22</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="D35" s="1">
+        <v>25</v>
+      </c>
+      <c r="E35" s="1">
+        <v>75</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1">
-        <v>14</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="D36" s="1">
+        <v>25</v>
+      </c>
+      <c r="E36" s="1">
+        <v>75</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="D37" s="1">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
+        <v>92</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B38" s="1">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1">
-        <v>25</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>33</v>
+      </c>
+      <c r="E38" s="1">
+        <v>67</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="C39" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1">
-        <v>18</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>53</v>
+      </c>
+      <c r="E40" s="1">
+        <v>47</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C41" s="1">
-        <v>23</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="D41" s="1">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1">
+        <v>73</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B42" s="1">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C43" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B44" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C44" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="C45" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1">
         <v>74</v>
       </c>
       <c r="C47" s="1">
+        <v>18</v>
+      </c>
+      <c r="D47" s="1">
         <v>21</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>34</v>
+      <c r="E47" s="1">
+        <v>79</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B48" s="1">
+        <v>33</v>
+      </c>
+      <c r="C48" s="1">
+        <v>13</v>
+      </c>
+      <c r="D48" s="1">
+        <v>27</v>
+      </c>
+      <c r="E48" s="1">
+        <v>73</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="1">
-        <v>9</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1">
+        <v>22</v>
+      </c>
+      <c r="D49" s="1">
+        <v>40</v>
+      </c>
+      <c r="E49" s="1">
+        <v>60</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="1">
+        <v>41</v>
+      </c>
+      <c r="C50" s="1">
+        <v>16</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="1">
+        <v>20</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="1">
-        <v>48</v>
-      </c>
-      <c r="C49" s="1">
+      <c r="B52" s="1">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1">
+        <v>18</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1">
+        <v>80</v>
+      </c>
+      <c r="C53" s="1">
+        <v>18</v>
+      </c>
+      <c r="D53" s="1">
+        <v>19</v>
+      </c>
+      <c r="E53" s="1">
+        <v>81</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1">
+        <v>117</v>
+      </c>
+      <c r="C54" s="1">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1">
+        <v>93</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
+      <c r="B55" s="1">
+        <v>218</v>
+      </c>
+      <c r="C55" s="1">
+        <v>36</v>
+      </c>
+      <c r="D55" s="1">
+        <v>26</v>
+      </c>
+      <c r="E55" s="1">
+        <v>74</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="1">
-        <v>35</v>
-      </c>
-      <c r="C50" s="1">
-        <v>18</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="1">
+      <c r="B56" s="1">
         <v>50</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C56" s="1">
         <v>21</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="1">
-        <v>59</v>
-      </c>
-      <c r="C52" s="1">
-        <v>20</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="1">
-        <v>60</v>
-      </c>
-      <c r="C53" s="1">
-        <v>27</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="1">
-        <v>28</v>
-      </c>
-      <c r="C54" s="1">
-        <v>11</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="1">
-        <v>23</v>
-      </c>
-      <c r="C55" s="1">
-        <v>12</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="1">
-        <v>41</v>
-      </c>
-      <c r="C56" s="1">
-        <v>16</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C57" s="1">
         <v>18</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="1">
+        <v>54</v>
+      </c>
+      <c r="E57" s="1">
+        <v>46</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="1">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1">
+        <v>14</v>
+      </c>
+      <c r="D58" s="1">
+        <v>29</v>
+      </c>
+      <c r="E58" s="1">
+        <v>71</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="1">
+      <c r="B59" s="1">
+        <v>41</v>
+      </c>
+      <c r="C59" s="1">
+        <v>13</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>100</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>100</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>100</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>100</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="1">
-        <v>13</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="1">
-        <v>45</v>
-      </c>
-      <c r="C59" s="1">
-        <v>8</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="1">
-        <v>30</v>
-      </c>
-      <c r="C60" s="1">
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>100</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>100</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>28</v>
+      </c>
+      <c r="C63" s="1">
         <v>11</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="1">
-        <v>81</v>
-      </c>
-      <c r="C61" s="1">
-        <v>18</v>
-      </c>
-      <c r="D61" s="1">
-        <v>54</v>
-      </c>
-      <c r="E61" s="1">
-        <v>46</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="1">
-        <v>134</v>
-      </c>
-      <c r="C62" s="1">
-        <v>16</v>
-      </c>
-      <c r="D62" s="1">
-        <v>8</v>
-      </c>
-      <c r="E62" s="1">
-        <v>92</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="1">
-        <v>148</v>
-      </c>
-      <c r="C63" s="1">
-        <v>8</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C64" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
+    <sortCondition ref="A2:A64"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2842,94 +2827,94 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="37.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.44140625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>76</v>
+      <c r="B2" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>77</v>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>79</v>
+      <c r="B5" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>80</v>
+      <c r="B6" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>81</v>
+      <c r="B7" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>82</v>
+      <c r="B8" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>83</v>
+      <c r="B9" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>84</v>
+      <c r="B10" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3164,13 +3149,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835CA598-76A5-4F2B-8253-5AD3645BCA71}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835CA598-76A5-4F2B-8253-5AD3645BCA71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F69DD2-9BD8-4583-B0CC-73934D40A6FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F69DD2-9BD8-4583-B0CC-73934D40A6FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aabf8062-b398-4e6b-9e63-bdc5fbcabccf"/>
+    <ds:schemaRef ds:uri="9f2a4b4d-4143-435b-af8b-2c0dc50657c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBA7957-3268-4070-AA9B-6BE203B7FCA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBA7957-3268-4070-AA9B-6BE203B7FCA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>